--- a/po_analysis_by_asin/B0DCGPTNKV_po_data.xlsx
+++ b/po_analysis_by_asin/B0DCGPTNKV_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>102</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>26</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>76</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>60</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>48</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>4</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>24</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>74</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>14</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45621</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>48</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>94</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>74</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>102</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>162</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>80</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>136</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>168</v>

--- a/po_analysis_by_asin/B0DCGPTNKV_po_data.xlsx
+++ b/po_analysis_by_asin/B0DCGPTNKV_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -589,7 +590,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -631,6 +632,355 @@
       </c>
       <c r="B6" t="n">
         <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.989153854791459</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96.03507057254475</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>49</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.95280658423493</v>
+      </c>
+      <c r="D3" t="n">
+        <v>93.67099430125106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.021381237352241</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90.254916181821</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>48</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.427265539656338</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90.60135283742832</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>48</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.742444311963943</v>
+      </c>
+      <c r="D6" t="n">
+        <v>89.03375081904797</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>47</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.727989591982412</v>
+      </c>
+      <c r="D7" t="n">
+        <v>88.5129023331511</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>47</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.455404249151727</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90.4242218632554</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>46</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.491031205301445</v>
+      </c>
+      <c r="D9" t="n">
+        <v>86.57789740745476</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>46</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.658746655745986</v>
+      </c>
+      <c r="D10" t="n">
+        <v>87.31032380839399</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.875962760761451</v>
+      </c>
+      <c r="D11" t="n">
+        <v>87.89307421002461</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>45</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.155799146327224</v>
+      </c>
+      <c r="D12" t="n">
+        <v>86.56155991716489</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>44</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.99059676563966</v>
+      </c>
+      <c r="D13" t="n">
+        <v>86.62274695521602</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>43</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.912920538875787</v>
+      </c>
+      <c r="D14" t="n">
+        <v>87.88064735762822</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>42</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.358907683166315</v>
+      </c>
+      <c r="D15" t="n">
+        <v>84.16554984552113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>42</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.396820779576964</v>
+      </c>
+      <c r="D16" t="n">
+        <v>85.85998875022406</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>41</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.822809202396947</v>
+      </c>
+      <c r="D17" t="n">
+        <v>82.16440236740938</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>41</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5042383975073585</v>
+      </c>
+      <c r="D18" t="n">
+        <v>81.55440441293351</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-3.830508451336271</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80.01654293659945</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>40</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.456520232824235</v>
+      </c>
+      <c r="D20" t="n">
+        <v>82.81794883957481</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>39</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.16926601540088</v>
+      </c>
+      <c r="D21" t="n">
+        <v>80.31919734300132</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>39</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.702628567532695</v>
+      </c>
+      <c r="D22" t="n">
+        <v>79.13332760804872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>38</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.619521353960328</v>
+      </c>
+      <c r="D23" t="n">
+        <v>80.11921535651275</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0DCGPTNKV_po_data.xlsx
+++ b/po_analysis_by_asin/B0DCGPTNKV_po_data.xlsx
@@ -645,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,16 +664,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -682,12 +672,6 @@
       <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.989153854791459</v>
-      </c>
-      <c r="D2" t="n">
-        <v>96.03507057254475</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -696,12 +680,6 @@
       <c r="B3" t="n">
         <v>49</v>
       </c>
-      <c r="C3" t="n">
-        <v>8.95280658423493</v>
-      </c>
-      <c r="D3" t="n">
-        <v>93.67099430125106</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -710,12 +688,6 @@
       <c r="B4" t="n">
         <v>49</v>
       </c>
-      <c r="C4" t="n">
-        <v>9.021381237352241</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90.254916181821</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -724,12 +696,6 @@
       <c r="B5" t="n">
         <v>48</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.427265539656338</v>
-      </c>
-      <c r="D5" t="n">
-        <v>90.60135283742832</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -738,12 +704,6 @@
       <c r="B6" t="n">
         <v>48</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.742444311963943</v>
-      </c>
-      <c r="D6" t="n">
-        <v>89.03375081904797</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -752,12 +712,6 @@
       <c r="B7" t="n">
         <v>47</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.727989591982412</v>
-      </c>
-      <c r="D7" t="n">
-        <v>88.5129023331511</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -766,12 +720,6 @@
       <c r="B8" t="n">
         <v>47</v>
       </c>
-      <c r="C8" t="n">
-        <v>5.455404249151727</v>
-      </c>
-      <c r="D8" t="n">
-        <v>90.4242218632554</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -780,12 +728,6 @@
       <c r="B9" t="n">
         <v>46</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.491031205301445</v>
-      </c>
-      <c r="D9" t="n">
-        <v>86.57789740745476</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -794,12 +736,6 @@
       <c r="B10" t="n">
         <v>46</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.658746655745986</v>
-      </c>
-      <c r="D10" t="n">
-        <v>87.31032380839399</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -808,12 +744,6 @@
       <c r="B11" t="n">
         <v>45</v>
       </c>
-      <c r="C11" t="n">
-        <v>-1.875962760761451</v>
-      </c>
-      <c r="D11" t="n">
-        <v>87.89307421002461</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -822,12 +752,6 @@
       <c r="B12" t="n">
         <v>45</v>
       </c>
-      <c r="C12" t="n">
-        <v>5.155799146327224</v>
-      </c>
-      <c r="D12" t="n">
-        <v>86.56155991716489</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -836,12 +760,6 @@
       <c r="B13" t="n">
         <v>44</v>
       </c>
-      <c r="C13" t="n">
-        <v>5.99059676563966</v>
-      </c>
-      <c r="D13" t="n">
-        <v>86.62274695521602</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -850,12 +768,6 @@
       <c r="B14" t="n">
         <v>43</v>
       </c>
-      <c r="C14" t="n">
-        <v>3.912920538875787</v>
-      </c>
-      <c r="D14" t="n">
-        <v>87.88064735762822</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -864,12 +776,6 @@
       <c r="B15" t="n">
         <v>42</v>
       </c>
-      <c r="C15" t="n">
-        <v>-2.358907683166315</v>
-      </c>
-      <c r="D15" t="n">
-        <v>84.16554984552113</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -878,12 +784,6 @@
       <c r="B16" t="n">
         <v>42</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.396820779576964</v>
-      </c>
-      <c r="D16" t="n">
-        <v>85.85998875022406</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -892,12 +792,6 @@
       <c r="B17" t="n">
         <v>41</v>
       </c>
-      <c r="C17" t="n">
-        <v>-1.822809202396947</v>
-      </c>
-      <c r="D17" t="n">
-        <v>82.16440236740938</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -906,12 +800,6 @@
       <c r="B18" t="n">
         <v>41</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.5042383975073585</v>
-      </c>
-      <c r="D18" t="n">
-        <v>81.55440441293351</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -920,12 +808,6 @@
       <c r="B19" t="n">
         <v>40</v>
       </c>
-      <c r="C19" t="n">
-        <v>-3.830508451336271</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80.01654293659945</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -934,12 +816,6 @@
       <c r="B20" t="n">
         <v>40</v>
       </c>
-      <c r="C20" t="n">
-        <v>-1.456520232824235</v>
-      </c>
-      <c r="D20" t="n">
-        <v>82.81794883957481</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -948,12 +824,6 @@
       <c r="B21" t="n">
         <v>39</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.16926601540088</v>
-      </c>
-      <c r="D21" t="n">
-        <v>80.31919734300132</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -962,12 +832,6 @@
       <c r="B22" t="n">
         <v>39</v>
       </c>
-      <c r="C22" t="n">
-        <v>-2.702628567532695</v>
-      </c>
-      <c r="D22" t="n">
-        <v>79.13332760804872</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -975,12 +839,6 @@
       </c>
       <c r="B23" t="n">
         <v>38</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-3.619521353960328</v>
-      </c>
-      <c r="D23" t="n">
-        <v>80.11921535651275</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0DCGPTNKV_po_data.xlsx
+++ b/po_analysis_by_asin/B0DCGPTNKV_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,30 @@
         <v>74</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -574,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +658,14 @@
         <v>168</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -645,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +702,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -678,7 +710,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -686,7 +718,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -694,7 +726,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -710,7 +742,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -718,7 +750,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -726,7 +758,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +766,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +774,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -750,7 +782,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -758,7 +790,7 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -766,7 +798,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -774,71 +806,95 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>38</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
